--- a/pinsD.xlsx
+++ b/pinsD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="480">
   <si>
     <t>PA00</t>
   </si>
@@ -1436,6 +1436,30 @@
   </si>
   <si>
     <t>T11</t>
+  </si>
+  <si>
+    <t>OTG_ID</t>
+  </si>
+  <si>
+    <t>OTG_DM</t>
+  </si>
+  <si>
+    <t>OTG_DP</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>JTDI</t>
+  </si>
+  <si>
+    <t>SWO</t>
+  </si>
+  <si>
+    <t>JTRST</t>
   </si>
 </sst>
 </file>
@@ -2368,7 +2392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="83" zoomScaleNormal="83" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2874,7 +2900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>396</v>
       </c>
@@ -2897,7 +2923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>400</v>
       </c>
@@ -2920,7 +2946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>325</v>
       </c>
@@ -2940,7 +2966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>301</v>
       </c>
@@ -2972,7 +2998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>343</v>
       </c>
@@ -2995,7 +3021,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -3027,7 +3053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -3056,7 +3082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>418</v>
       </c>
@@ -3076,7 +3102,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>449</v>
       </c>
@@ -3096,7 +3122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>439</v>
       </c>
@@ -3122,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>452</v>
       </c>
@@ -3145,7 +3171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>341</v>
       </c>
@@ -3171,7 +3197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>454</v>
       </c>
@@ -3194,24 +3220,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>29</v>
+        <v>322</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
       </c>
       <c r="L30" t="s">
         <v>30</v>
@@ -3219,111 +3251,144 @@
       <c r="M30" t="s">
         <v>31</v>
       </c>
-      <c r="N30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>395</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>216</v>
+        <v>332</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s">
+        <v>100</v>
       </c>
       <c r="N31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>314</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>220</v>
+        <v>65</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="P32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>205</v>
+        <v>70</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N33" t="s">
+        <v>72</v>
       </c>
       <c r="P33" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="P34" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="B35" t="s">
-        <v>433</v>
+        <v>303</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
@@ -3332,21 +3397,27 @@
         <v>28</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H35" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B36" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s">
         <v>214</v>
@@ -3355,59 +3426,44 @@
         <v>215</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="I36" t="s">
-        <v>245</v>
+        <v>216</v>
+      </c>
+      <c r="N36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" t="s">
-        <v>147</v>
-      </c>
-      <c r="M37" t="s">
-        <v>148</v>
+        <v>215</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -3415,1128 +3471,1117 @@
       <c r="E38" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" t="s">
-        <v>253</v>
+      <c r="F38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P38" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" t="s">
-        <v>175</v>
-      </c>
-      <c r="M39" t="s">
-        <v>176</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="P39" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" t="s">
-        <v>170</v>
-      </c>
-      <c r="L40" t="s">
-        <v>171</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="B41" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="L41" t="s">
-        <v>101</v>
-      </c>
-      <c r="M41" t="s">
-        <v>100</v>
-      </c>
-      <c r="N41" t="s">
-        <v>132</v>
-      </c>
-      <c r="O41" t="s">
-        <v>9</v>
+        <v>215</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42" t="s">
-        <v>105</v>
+        <v>146</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" t="s">
+        <v>84</v>
       </c>
       <c r="L42" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="M42" t="s">
-        <v>106</v>
-      </c>
-      <c r="P42" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>108</v>
+        <v>148</v>
+      </c>
+      <c r="N42" t="s">
+        <v>149</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="M43" t="s">
-        <v>97</v>
-      </c>
-      <c r="N43" t="s">
-        <v>126</v>
-      </c>
-      <c r="O43" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L44" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>175</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>160</v>
+        <v>176</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>458</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>4</v>
+      <c r="E45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>36</v>
+        <v>171</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L46" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" t="s">
+        <v>100</v>
       </c>
       <c r="N46" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>25</v>
+        <v>132</v>
+      </c>
+      <c r="O46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
-      </c>
-      <c r="N47" t="s">
-        <v>54</v>
+        <v>105</v>
+      </c>
+      <c r="L47" t="s">
+        <v>48</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+      <c r="P47" t="s">
+        <v>107</v>
       </c>
       <c r="Q47" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" t="s">
+        <v>126</v>
+      </c>
+      <c r="O48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B49" t="s">
+        <v>358</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M49" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>446</v>
+      </c>
+      <c r="B50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>458</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" t="s">
+        <v>53</v>
+      </c>
+      <c r="N52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>410</v>
+      </c>
+      <c r="B53" t="s">
+        <v>411</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>369</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B54" t="s">
         <v>370</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I48" s="5" t="s">
+      <c r="F54" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J54" t="s">
         <v>180</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O54" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>410</v>
-      </c>
-      <c r="B49" t="s">
-        <v>411</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>371</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
         <v>372</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>183</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G55" t="s">
         <v>185</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I55" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K55" t="s">
         <v>186</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B56" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>317</v>
+      </c>
+      <c r="B57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="G58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>443</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B59" t="s">
         <v>297</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G59" t="s">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H59" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J59" t="s">
         <v>6</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N59" t="s">
         <v>7</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O59" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>444</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B60" t="s">
         <v>298</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H60" t="s">
         <v>10</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I60" t="s">
         <v>11</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N60" t="s">
         <v>12</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O60" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>339</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B61" t="s">
         <v>340</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C61" t="s">
         <v>118</v>
       </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13" t="s">
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I61" t="s">
         <v>119</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J61" t="s">
         <v>120</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K61" t="s">
         <v>110</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>448</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B62" t="s">
         <v>306</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G62" t="s">
         <v>28</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H62" t="s">
         <v>46</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I62" t="s">
         <v>47</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J62" t="s">
         <v>34</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L62" t="s">
         <v>48</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>453</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B63" t="s">
         <v>429</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C63" t="s">
         <v>269</v>
       </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="13" t="s">
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>455</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B64" t="s">
         <v>431</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C64" t="s">
         <v>273</v>
       </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="13" t="s">
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>381</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B65" t="s">
         <v>435</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C65" t="s">
         <v>276</v>
       </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="13" t="s">
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H65" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>456</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B66" t="s">
         <v>438</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="13" t="s">
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>351</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B67" t="s">
         <v>352</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C67" t="s">
         <v>150</v>
       </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="13" t="s">
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G67" t="s">
         <v>152</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H67" t="s">
         <v>88</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J67" t="s">
         <v>90</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L67" t="s">
         <v>153</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P67" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>309</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B68" t="s">
         <v>310</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C68" t="s">
         <v>56</v>
       </c>
-      <c r="D60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="13" t="s">
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H68" t="s">
         <v>57</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K68" t="s">
         <v>58</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N68" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>392</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B69" t="s">
         <v>393</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C69" t="s">
         <v>212</v>
       </c>
-      <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="13" t="s">
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>323</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B70" t="s">
         <v>442</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="D62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="13" t="s">
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I70" t="s">
         <v>122</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J70" t="s">
         <v>123</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K70" t="s">
         <v>115</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L70" t="s">
         <v>124</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>390</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B71" t="s">
         <v>391</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
         <v>209</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I71" t="s">
         <v>211</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>377</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B72" t="s">
         <v>378</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
         <v>194</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M72" t="s">
         <v>106</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N72" t="s">
         <v>139</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>406</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B73" t="s">
         <v>407</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D65" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
         <v>231</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N73" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>404</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B74" t="s">
         <v>405</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>228</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>379</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B75" t="s">
         <v>437</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D75" t="s">
         <v>214</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E75" t="s">
         <v>215</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H75" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>412</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B76" t="s">
         <v>413</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>408</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B77" t="s">
         <v>409</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I77" t="s">
         <v>112</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N77" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>426</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" t="s">
         <v>440</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D78" t="s">
         <v>214</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E78" t="s">
         <v>215</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>311</v>
-      </c>
-      <c r="B71" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>61</v>
-      </c>
-      <c r="H71" t="s">
-        <v>62</v>
-      </c>
-      <c r="N71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>313</v>
-      </c>
-      <c r="B72" t="s">
-        <v>314</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" t="s">
-        <v>66</v>
-      </c>
-      <c r="N72" t="s">
-        <v>67</v>
-      </c>
-      <c r="P72" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>315</v>
-      </c>
-      <c r="B73" t="s">
-        <v>316</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" t="s">
-        <v>71</v>
-      </c>
-      <c r="N73" t="s">
-        <v>72</v>
-      </c>
-      <c r="P73" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>317</v>
-      </c>
-      <c r="B74" t="s">
-        <v>318</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>319</v>
-      </c>
-      <c r="B75" t="s">
-        <v>320</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>321</v>
-      </c>
-      <c r="B76" t="s">
-        <v>322</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" t="s">
-        <v>79</v>
-      </c>
-      <c r="H76" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" t="s">
-        <v>30</v>
-      </c>
-      <c r="M76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>329</v>
-      </c>
-      <c r="B77" t="s">
-        <v>330</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" t="s">
-        <v>96</v>
-      </c>
-      <c r="H77" t="s">
-        <v>10</v>
-      </c>
-      <c r="L77" t="s">
-        <v>35</v>
-      </c>
-      <c r="M77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>331</v>
-      </c>
-      <c r="B78" t="s">
-        <v>332</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
-      <c r="I78" t="s">
-        <v>40</v>
-      </c>
-      <c r="L78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M78" t="s">
-        <v>100</v>
-      </c>
-      <c r="N78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>434</v>
       </c>
@@ -4553,7 +4598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -4602,7 +4647,7 @@
     </row>
   </sheetData>
   <sortState ref="A1:Q82">
-    <sortCondition ref="F1:F82"/>
+    <sortCondition ref="F1:F83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
